--- a/test/data/generic-uart-protocol-sheet.xlsx
+++ b/test/data/generic-uart-protocol-sheet.xlsx
@@ -29,25 +29,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
+    <t>Command</t>
+  </si>
+  <si>
     <t>Tag</t>
   </si>
   <si>
     <t>Alias</t>
   </si>
   <si>
-    <t>Command</t>
-  </si>
-  <si>
     <t>Frequency</t>
   </si>
   <si>
+    <t>010300000002C40B</t>
+  </si>
+  <si>
     <t>device1</t>
   </si>
   <si>
     <t>风机1</t>
   </si>
   <si>
-    <t>010300000002C40B</t>
+    <t>020300000002C438</t>
   </si>
   <si>
     <t>device2</t>
@@ -56,7 +59,7 @@
     <t>风机2</t>
   </si>
   <si>
-    <t>020300000002C438</t>
+    <t>030300000002C5E9</t>
   </si>
   <si>
     <t>device3</t>
@@ -65,7 +68,7 @@
     <t>风机3</t>
   </si>
   <si>
-    <t>030300000002C5E9</t>
+    <t>040300000002C45E</t>
   </si>
   <si>
     <t>device4</t>
@@ -74,7 +77,7 @@
     <t>风机4</t>
   </si>
   <si>
-    <t>040300000002C45E</t>
+    <t>050300000002C58F</t>
   </si>
   <si>
     <t>device5</t>
@@ -83,7 +86,7 @@
     <t>风机5</t>
   </si>
   <si>
-    <t>050300000002C58F</t>
+    <t>060300000002C5BC</t>
   </si>
   <si>
     <t>device6</t>
@@ -92,7 +95,7 @@
     <t>风机6</t>
   </si>
   <si>
-    <t>060300000002C5BC</t>
+    <t>070300000002C46D</t>
   </si>
   <si>
     <t>device7</t>
@@ -101,7 +104,7 @@
     <t>风机7</t>
   </si>
   <si>
-    <t>070300000002C46D</t>
+    <t>080300000002C492</t>
   </si>
   <si>
     <t>device8</t>
@@ -110,7 +113,7 @@
     <t>风机8</t>
   </si>
   <si>
-    <t>080300000002C492</t>
+    <t>090300000002C543</t>
   </si>
   <si>
     <t>device9</t>
@@ -119,16 +122,13 @@
     <t>风机9</t>
   </si>
   <si>
-    <t>090300000002C543</t>
+    <t>0A0300000002C570</t>
   </si>
   <si>
     <t>device10</t>
   </si>
   <si>
     <t>风机10</t>
-  </si>
-  <si>
-    <t>0A0300000002C570</t>
   </si>
 </sst>
 </file>
@@ -1306,22 +1306,22 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1329,13 +1329,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3">
@@ -1343,13 +1343,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3">
@@ -1357,13 +1357,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
@@ -1371,13 +1371,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3">
@@ -1385,13 +1385,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3">
@@ -1399,13 +1399,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="3">
@@ -1413,13 +1413,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3">
@@ -1427,13 +1427,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3">
@@ -1441,13 +1441,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="3">
@@ -1455,13 +1455,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3">
